--- a/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteB.xlsx
+++ b/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\git\automationframework\AutomationFrameworkWDTestNGJAVA\src\main\resources\unicodeTech\testInformation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="14355" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -21,9 +26,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -58,6 +60,9 @@
   </si>
   <si>
     <t>bluetooth</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -136,6 +141,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -183,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +450,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -453,24 +461,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -483,23 +491,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -507,12 +515,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
